--- a/Excel_input.xlsx
+++ b/Excel_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wijnand IJzermans\Jupyter Notebooks\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wijnand IJzermans\Jupyter Notebooks\Port Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0C066F-AA20-438D-8717-41CDB65EEA2B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1B9D4D-6A48-4A51-995E-2287C5748D50}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="8745" activeTab="5" xr2:uid="{6131D7F3-CE41-4D55-9656-8FFAD0B6AAA4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="8745" firstSheet="1" activeTab="3" xr2:uid="{6131D7F3-CE41-4D55-9656-8FFAD0B6AAA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Vessel specs" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="Unloaders" sheetId="13" r:id="rId10"/>
     <sheet name="Depreciation" sheetId="14" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179017" calcMode="manual" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -232,7 +232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C46" authorId="0" shapeId="0" xr:uid="{CCFA399F-FD69-4E82-825C-502574833690}">
+    <comment ref="C50" authorId="0" shapeId="0" xr:uid="{CCFA399F-FD69-4E82-825C-502574833690}">
       <text>
         <r>
           <rPr>
@@ -256,7 +256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C53" authorId="0" shapeId="0" xr:uid="{3220772C-01F2-4EAA-A94A-ADD1C46CBF91}">
+    <comment ref="C57" authorId="0" shapeId="0" xr:uid="{3220772C-01F2-4EAA-A94A-ADD1C46CBF91}">
       <text>
         <r>
           <rPr>
@@ -280,7 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C56" authorId="0" shapeId="0" xr:uid="{0A648E03-C958-4C77-B20A-A89A6D5F9439}">
+    <comment ref="C60" authorId="0" shapeId="0" xr:uid="{0A648E03-C958-4C77-B20A-A89A6D5F9439}">
       <text>
         <r>
           <rPr>
@@ -304,7 +304,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C57" authorId="0" shapeId="0" xr:uid="{E4815C73-1FDA-45CD-A539-4B68F660028E}">
+    <comment ref="C61" authorId="0" shapeId="0" xr:uid="{E4815C73-1FDA-45CD-A539-4B68F660028E}">
       <text>
         <r>
           <rPr>
@@ -328,7 +328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G58" authorId="0" shapeId="0" xr:uid="{B04F5F40-DFA8-4F39-A669-EE06169AB7C3}">
+    <comment ref="G62" authorId="0" shapeId="0" xr:uid="{B04F5F40-DFA8-4F39-A669-EE06169AB7C3}">
       <text>
         <r>
           <rPr>
@@ -356,7 +356,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G59" authorId="0" shapeId="0" xr:uid="{C50B41C9-5346-4745-B7C9-0446A0209D18}">
+    <comment ref="G63" authorId="0" shapeId="0" xr:uid="{C50B41C9-5346-4745-B7C9-0446A0209D18}">
       <text>
         <r>
           <rPr>
@@ -384,7 +384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G60" authorId="0" shapeId="0" xr:uid="{21539B80-31DD-49FC-8149-707391B26D31}">
+    <comment ref="G64" authorId="0" shapeId="0" xr:uid="{21539B80-31DD-49FC-8149-707391B26D31}">
       <text>
         <r>
           <rPr>
@@ -417,7 +417,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="108">
   <si>
     <t>Year</t>
   </si>
@@ -611,12 +611,6 @@
     <t xml:space="preserve">Maize </t>
   </si>
   <si>
-    <t>Length import conveyor</t>
-  </si>
-  <si>
-    <t>length export conveyor</t>
-  </si>
-  <si>
     <t>Mooring time (hours)</t>
   </si>
   <si>
@@ -728,13 +722,25 @@
     <t>Linear depreciation rate</t>
   </si>
   <si>
+    <t>Demurrage costs</t>
+  </si>
+  <si>
+    <t>Demurrage escalation</t>
+  </si>
+  <si>
+    <t>Bunkers</t>
+  </si>
+  <si>
+    <t>Energy escalation</t>
+  </si>
+  <si>
     <t>Screw unloader</t>
   </si>
   <si>
-    <t>Demurrage costs</t>
-  </si>
-  <si>
-    <t>Demurrage escalation</t>
+    <t>Quay - Storage conveyor length</t>
+  </si>
+  <si>
+    <t>Storage - Loading conveyor length</t>
   </si>
 </sst>
 </file>
@@ -845,7 +851,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -898,6 +904,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1313,7 +1325,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B7" s="16">
         <v>24</v>
@@ -1327,7 +1339,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B8" s="16">
         <v>3</v>
@@ -1347,7 +1359,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B9">
         <v>600</v>
@@ -1375,7 +1387,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1386,15 +1398,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1413,7 +1425,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1425,18 +1437,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B2" s="23">
         <v>0.03</v>
@@ -1463,15 +1475,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E6A64C-C280-4EAD-9606-0247A2B787C6}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1485,392 +1497,525 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>2016</v>
       </c>
       <c r="B2" s="3">
+        <v>700000</v>
+      </c>
+      <c r="C2" s="3">
+        <v>300000</v>
+      </c>
+      <c r="D2" s="3">
+        <v>200000</v>
+      </c>
+      <c r="E2" s="3">
         <v>1000000</v>
       </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2017</v>
       </c>
       <c r="B3" s="3">
+        <f>E3-D3-C3</f>
+        <v>700000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>500000</v>
+      </c>
+      <c r="D3" s="3">
+        <v>300000</v>
+      </c>
+      <c r="E3" s="3">
         <v>1500000</v>
       </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f>A3+1</f>
         <v>2018</v>
       </c>
       <c r="B4" s="3">
+        <f t="shared" ref="B4:B25" si="0">E4-D4-C4</f>
+        <v>900000</v>
+      </c>
+      <c r="C4" s="3">
+        <f>C3+100000</f>
+        <v>600000</v>
+      </c>
+      <c r="D4" s="3">
+        <f>D3+100000</f>
+        <v>400000</v>
+      </c>
+      <c r="E4" s="3">
         <v>1900000</v>
       </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f>A4+1</f>
         <v>2019</v>
       </c>
       <c r="B5" s="3">
-        <f t="shared" ref="B5:B14" si="0">B4+300000</f>
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" ref="C5:C24" si="1">C4+100000</f>
+        <v>700000</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" ref="D5:D25" si="2">D4+100000</f>
+        <v>500000</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" ref="E5:E14" si="3">E4+300000</f>
         <v>2200000</v>
       </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <f t="shared" ref="A6:A18" si="1">A5+1</f>
+        <f t="shared" ref="A6:A18" si="4">A5+1</f>
         <v>2020</v>
       </c>
       <c r="B6" s="3">
         <f t="shared" si="0"/>
+        <v>1100000</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="1"/>
+        <v>800000</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="2"/>
+        <v>600000</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="3"/>
         <v>2500000</v>
       </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2021</v>
       </c>
       <c r="B7" s="3">
         <f t="shared" si="0"/>
+        <v>1200000</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="1"/>
+        <v>900000</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="2"/>
+        <v>700000</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="3"/>
         <v>2800000</v>
       </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2022</v>
       </c>
       <c r="B8" s="3">
         <f t="shared" si="0"/>
+        <v>1300000</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="2"/>
+        <v>800000</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="3"/>
         <v>3100000</v>
       </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2023</v>
       </c>
       <c r="B9" s="3">
         <f t="shared" si="0"/>
+        <v>1400000</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="1"/>
+        <v>1100000</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="2"/>
+        <v>900000</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="3"/>
         <v>3400000</v>
       </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2024</v>
       </c>
       <c r="B10" s="3">
         <f t="shared" si="0"/>
+        <v>1500000</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="1"/>
+        <v>1200000</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="2"/>
+        <v>1000000</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="3"/>
         <v>3700000</v>
       </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2025</v>
       </c>
       <c r="B11" s="3">
         <f t="shared" si="0"/>
+        <v>1600000</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="1"/>
+        <v>1300000</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="2"/>
+        <v>1100000</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="3"/>
         <v>4000000</v>
       </c>
-      <c r="C11" s="3">
-        <v>0</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2026</v>
       </c>
       <c r="B12" s="3">
         <f t="shared" si="0"/>
+        <v>1700000</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="1"/>
+        <v>1400000</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="2"/>
+        <v>1200000</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="3"/>
         <v>4300000</v>
       </c>
-      <c r="C12" s="3">
-        <v>0</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2027</v>
       </c>
       <c r="B13" s="3">
         <f t="shared" si="0"/>
+        <v>1800000</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="1"/>
+        <v>1500000</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="2"/>
+        <v>1300000</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="3"/>
         <v>4600000</v>
       </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2028</v>
       </c>
       <c r="B14" s="3">
         <f t="shared" si="0"/>
+        <v>1900000</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="1"/>
+        <v>1600000</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="2"/>
+        <v>1400000</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="3"/>
         <v>4900000</v>
       </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
+        <f t="shared" si="4"/>
+        <v>2029</v>
+      </c>
+      <c r="B15" s="3">
+        <f t="shared" si="0"/>
+        <v>1200000</v>
+      </c>
+      <c r="C15" s="3">
         <f t="shared" si="1"/>
-        <v>2029</v>
-      </c>
-      <c r="B15" s="3">
-        <f>B14-500000</f>
+        <v>1700000</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="2"/>
+        <v>1500000</v>
+      </c>
+      <c r="E15" s="3">
+        <f>E14-500000</f>
         <v>4400000</v>
       </c>
-      <c r="C15" s="3">
-        <v>0</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
+        <f t="shared" si="4"/>
+        <v>2030</v>
+      </c>
+      <c r="B16" s="3">
+        <f t="shared" si="0"/>
+        <v>500000</v>
+      </c>
+      <c r="C16" s="3">
         <f t="shared" si="1"/>
-        <v>2030</v>
-      </c>
-      <c r="B16" s="3">
-        <f t="shared" ref="B16:B19" si="2">B15-500000</f>
+        <v>1800000</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="2"/>
+        <v>1600000</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" ref="E16:E19" si="5">E15-500000</f>
         <v>3900000</v>
       </c>
-      <c r="C16" s="3">
-        <v>0</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2031</v>
       </c>
       <c r="B17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
+        <v>500000</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1600000</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1300000</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="5"/>
         <v>3400000</v>
       </c>
-      <c r="C17" s="3">
-        <v>0</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2032</v>
       </c>
       <c r="B18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
+      <c r="C18" s="3">
+        <f>C17</f>
+        <v>1600000</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1100000</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="5"/>
         <v>2900000</v>
       </c>
-      <c r="C18" s="3">
-        <v>0</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f>A18+1</f>
         <v>2033</v>
       </c>
       <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" ref="C19:C25" si="6">C18</f>
+        <v>1600000</v>
+      </c>
+      <c r="D19" s="3">
+        <v>900000</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="5"/>
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <f t="shared" ref="A20:A24" si="7">A19+1</f>
+        <v>2034</v>
+      </c>
+      <c r="B20" s="3">
+        <f t="shared" si="0"/>
+        <v>600000</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="6"/>
+        <v>1600000</v>
+      </c>
+      <c r="D20" s="3">
+        <v>700000</v>
+      </c>
+      <c r="E20" s="3">
+        <f>E19+500000</f>
+        <v>2900000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <f t="shared" si="7"/>
+        <v>2035</v>
+      </c>
+      <c r="B21" s="3">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" si="6"/>
+        <v>1600000</v>
+      </c>
+      <c r="D21" s="3">
         <f t="shared" si="2"/>
-        <v>2400000</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <f t="shared" ref="A20:A24" si="3">A19+1</f>
-        <v>2034</v>
-      </c>
-      <c r="B20" s="3">
-        <f>B19+500000</f>
-        <v>2900000</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <f t="shared" si="3"/>
-        <v>2035</v>
-      </c>
-      <c r="B21" s="3">
-        <f t="shared" ref="B21:B25" si="4">B20+500000</f>
+        <v>800000</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" ref="E21:E25" si="8">E20+500000</f>
         <v>3400000</v>
       </c>
-      <c r="C21" s="3">
-        <v>0</v>
-      </c>
-      <c r="D21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2036</v>
       </c>
       <c r="B22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
+        <v>1400000</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" si="6"/>
+        <v>1600000</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="2"/>
+        <v>900000</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="8"/>
         <v>3900000</v>
       </c>
-      <c r="C22" s="3">
-        <v>0</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2037</v>
       </c>
       <c r="B23" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
+        <v>1800000</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" si="6"/>
+        <v>1600000</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="2"/>
+        <v>1000000</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" si="8"/>
         <v>4400000</v>
       </c>
-      <c r="C23" s="3">
-        <v>0</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2038</v>
       </c>
       <c r="B24" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
+        <v>2200000</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" si="6"/>
+        <v>1600000</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="2"/>
+        <v>1100000</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" si="8"/>
         <v>4900000</v>
       </c>
-      <c r="C24" s="3">
-        <v>0</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <f>A24+1</f>
         <v>2039</v>
       </c>
       <c r="B25" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
+        <v>2600000</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" si="6"/>
+        <v>1600000</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="2"/>
+        <v>1200000</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" si="8"/>
         <v>5400000</v>
       </c>
-      <c r="C25" s="3">
-        <v>0</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2995,11 +3140,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B420734-39EF-4C95-96D7-F3D015929321}">
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F19" sqref="F19"/>
+      <selection pane="topRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3068,10 +3213,10 @@
         <v>13</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>32</v>
@@ -3143,7 +3288,7 @@
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D10" s="9">
         <v>16</v>
@@ -3152,7 +3297,7 @@
         <v>9000000</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3163,7 +3308,7 @@
         <v>10500000</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3174,7 +3319,7 @@
         <v>13500000</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3243,13 +3388,13 @@
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F19" s="9">
         <v>700</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3274,7 +3419,7 @@
     </row>
     <row r="23" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -3284,68 +3429,54 @@
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="9">
-        <v>300</v>
-      </c>
-      <c r="H24" s="9">
-        <v>10</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" s="9">
-        <v>600</v>
-      </c>
-      <c r="H25" s="9">
-        <v>10</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" s="9">
-        <v>1000</v>
-      </c>
-      <c r="H26" s="9">
-        <v>10</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" s="9">
-        <v>1200</v>
-      </c>
-      <c r="H27" s="9">
-        <v>10</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>40</v>
-      </c>
+    <row r="24" spans="1:9" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+    </row>
+    <row r="25" spans="1:9" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+    </row>
+    <row r="26" spans="1:9" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+    </row>
+    <row r="27" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
         <v>33</v>
       </c>
       <c r="F28" s="9">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="H28" s="9">
         <v>10</v>
@@ -3359,7 +3490,7 @@
         <v>33</v>
       </c>
       <c r="F29" s="9">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="H29" s="9">
         <v>10</v>
@@ -3373,7 +3504,7 @@
         <v>33</v>
       </c>
       <c r="F30" s="9">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H30" s="9">
         <v>10</v>
@@ -3387,7 +3518,7 @@
         <v>33</v>
       </c>
       <c r="F31" s="9">
-        <v>2200</v>
+        <v>1200</v>
       </c>
       <c r="H31" s="9">
         <v>10</v>
@@ -3401,7 +3532,7 @@
         <v>33</v>
       </c>
       <c r="F32" s="9">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="H32" s="9">
         <v>10</v>
@@ -3410,24 +3541,40 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" s="9">
+        <v>1800</v>
+      </c>
+      <c r="H33" s="9">
+        <v>10</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="9">
+        <v>2000</v>
+      </c>
+      <c r="H34" s="9">
+        <v>10</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F35" s="9">
-        <v>300</v>
+        <v>2200</v>
       </c>
       <c r="H35" s="9">
         <v>10</v>
@@ -3438,10 +3585,10 @@
     </row>
     <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F36" s="9">
-        <v>600</v>
+        <v>2500</v>
       </c>
       <c r="H36" s="9">
         <v>10</v>
@@ -3450,53 +3597,24 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F37" s="9">
-        <v>1000</v>
-      </c>
-      <c r="H37" s="9">
-        <v>10</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="9">
-        <v>25000</v>
-      </c>
-      <c r="D38" s="9">
-        <f>1.16*C38</f>
-        <v>28999.999999999996</v>
-      </c>
-      <c r="F38" s="9">
-        <v>1200</v>
-      </c>
-      <c r="H38" s="9">
-        <v>10</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>40</v>
-      </c>
+    <row r="38" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
     </row>
     <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F39" s="9">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="H39" s="9">
         <v>10</v>
@@ -3510,7 +3628,7 @@
         <v>34</v>
       </c>
       <c r="F40" s="9">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="H40" s="9">
         <v>10</v>
@@ -3523,8 +3641,14 @@
       <c r="B41" s="9" t="s">
         <v>34</v>
       </c>
+      <c r="C41" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>91</v>
+      </c>
       <c r="F41" s="9">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H41" s="9">
         <v>10</v>
@@ -3537,8 +3661,15 @@
       <c r="B42" s="9" t="s">
         <v>34</v>
       </c>
+      <c r="C42" s="9">
+        <v>25000</v>
+      </c>
+      <c r="D42" s="9">
+        <f>1.16*C42</f>
+        <v>28999.999999999996</v>
+      </c>
       <c r="F42" s="9">
-        <v>2200</v>
+        <v>1200</v>
       </c>
       <c r="H42" s="9">
         <v>10</v>
@@ -3552,7 +3683,7 @@
         <v>34</v>
       </c>
       <c r="F43" s="9">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="H43" s="9">
         <v>10</v>
@@ -3561,24 +3692,40 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
+    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" s="9">
+        <v>1800</v>
+      </c>
+      <c r="H44" s="9">
+        <v>10</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45" s="9">
+        <v>2000</v>
+      </c>
+      <c r="H45" s="9">
+        <v>10</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" s="9">
-        <v>25</v>
+        <v>34</v>
+      </c>
+      <c r="F46" s="9">
+        <v>2200</v>
       </c>
       <c r="H46" s="9">
         <v>10</v>
@@ -3587,28 +3734,24 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H48" s="10" t="s">
-        <v>32</v>
+    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47" s="9">
+        <v>2500</v>
+      </c>
+      <c r="H47" s="9">
+        <v>10</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
+      <c r="A49" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
@@ -3617,87 +3760,91 @@
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
     </row>
-    <row r="51" spans="1:9" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
+    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="9">
+        <v>25</v>
+      </c>
+      <c r="H50" s="9">
+        <v>10</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="12"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+    </row>
+    <row r="55" spans="1:9" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B55" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C55" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="H51" s="10" t="s">
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H55" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
+    <row r="56" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-    </row>
-    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+    </row>
+    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B57" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C57" s="9">
         <v>15000</v>
-      </c>
-      <c r="H53" s="9">
-        <v>30</v>
-      </c>
-      <c r="I53" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-    </row>
-    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C56" s="9">
-        <v>20000</v>
-      </c>
-      <c r="H56" s="9">
-        <v>30</v>
-      </c>
-      <c r="I56" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C57" s="9">
-        <v>110000</v>
       </c>
       <c r="H57" s="9">
         <v>30</v>
@@ -3706,124 +3853,108 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G58" s="9">
-        <v>40.6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G59" s="9">
-        <v>35000</v>
-      </c>
+    <row r="59" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
     </row>
     <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="G60" s="9">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H62" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
+        <v>37</v>
+      </c>
+      <c r="C60" s="9">
+        <v>20000</v>
+      </c>
+      <c r="H60" s="9">
+        <v>30</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61" s="9">
+        <v>110000</v>
+      </c>
+      <c r="H61" s="9">
+        <v>30</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G62" s="9">
+        <v>40.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G63" s="9">
+        <v>35000</v>
+      </c>
     </row>
     <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F64" s="9">
-        <v>300</v>
-      </c>
-      <c r="H64" s="9">
-        <v>10</v>
-      </c>
-      <c r="I64" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F65" s="9">
-        <v>600</v>
-      </c>
-      <c r="H65" s="9">
-        <v>10</v>
-      </c>
-      <c r="I65" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F66" s="9">
-        <v>1000</v>
-      </c>
-      <c r="H66" s="9">
-        <v>10</v>
-      </c>
-      <c r="I66" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F67" s="9">
-        <v>1200</v>
-      </c>
-      <c r="H67" s="9">
-        <v>10</v>
-      </c>
-      <c r="I67" s="9" t="s">
-        <v>40</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G64" s="9">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H66" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
     </row>
     <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="9" t="s">
         <v>38</v>
       </c>
       <c r="F68" s="9">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="H68" s="9">
         <v>10</v>
@@ -3837,7 +3968,7 @@
         <v>38</v>
       </c>
       <c r="F69" s="9">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="H69" s="9">
         <v>10</v>
@@ -3851,7 +3982,7 @@
         <v>38</v>
       </c>
       <c r="F70" s="9">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H70" s="9">
         <v>10</v>
@@ -3865,7 +3996,7 @@
         <v>38</v>
       </c>
       <c r="F71" s="9">
-        <v>2200</v>
+        <v>1200</v>
       </c>
       <c r="H71" s="9">
         <v>10</v>
@@ -3879,7 +4010,7 @@
         <v>38</v>
       </c>
       <c r="F72" s="9">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="H72" s="9">
         <v>10</v>
@@ -3888,91 +4019,148 @@
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G74" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H74" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13"/>
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F73" s="9">
+        <v>1800</v>
+      </c>
+      <c r="H73" s="9">
+        <v>10</v>
+      </c>
+      <c r="I73" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F74" s="9">
+        <v>2000</v>
+      </c>
+      <c r="H74" s="9">
+        <v>10</v>
+      </c>
+      <c r="I74" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F75" s="9">
+        <v>2200</v>
+      </c>
+      <c r="H75" s="9">
+        <v>10</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>61</v>
+      <c r="B76" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="F76" s="9">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="H76" s="9">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I76" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="15" t="s">
+    <row r="78" spans="1:9" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B79" s="13"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
+    </row>
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C80" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F77" s="9">
+      <c r="F80" s="9">
+        <v>500</v>
+      </c>
+      <c r="H80" s="9">
+        <v>15</v>
+      </c>
+      <c r="I80" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F81" s="9">
         <v>2500</v>
       </c>
-      <c r="H77" s="9">
+      <c r="H81" s="9">
         <v>15</v>
       </c>
-      <c r="I77" s="9" t="s">
+      <c r="I81" s="9" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D09429-E9D7-4636-AB39-01054E6B1615}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3986,227 +4174,230 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>2016</v>
       </c>
       <c r="B2" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D2" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2017</v>
       </c>
       <c r="B3" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D3" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f>A3+1</f>
         <v>2018</v>
       </c>
       <c r="B4" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D4" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f>A4+1</f>
         <v>2019</v>
       </c>
       <c r="B5" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D5" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f t="shared" ref="A6:A18" si="0">A5+1</f>
         <v>2020</v>
       </c>
       <c r="B6" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C6" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D6" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
       <c r="B7" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C7" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D7" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
       <c r="B8" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C8" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D8" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
       <c r="B9" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C9" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D9" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
       <c r="B10" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C10" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D10" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
       <c r="B11" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C11" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D11" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
       <c r="B12" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C12" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D12" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
       <c r="B13" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C13" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D13" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
       <c r="B14" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C14" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D14" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
       <c r="B15" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C15" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D15" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
       <c r="B16" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C16" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D16" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -4215,13 +4406,13 @@
         <v>2031</v>
       </c>
       <c r="B17" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C17" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D17" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -4230,13 +4421,13 @@
         <v>2032</v>
       </c>
       <c r="B18" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C18" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D18" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -4245,13 +4436,13 @@
         <v>2033</v>
       </c>
       <c r="B19" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C19" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D19" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -4260,13 +4451,13 @@
         <v>2034</v>
       </c>
       <c r="B20" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C20" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D20" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -4275,13 +4466,13 @@
         <v>2035</v>
       </c>
       <c r="B21" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C21" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D21" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4290,13 +4481,13 @@
         <v>2036</v>
       </c>
       <c r="B22" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C22" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D22" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -4305,13 +4496,13 @@
         <v>2037</v>
       </c>
       <c r="B23" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C23" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D23" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -4320,13 +4511,13 @@
         <v>2038</v>
       </c>
       <c r="B24" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C24" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D24" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -4335,13 +4526,13 @@
         <v>2039</v>
       </c>
       <c r="B25" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C25" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D25" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -4350,13 +4541,13 @@
         <v>2040</v>
       </c>
       <c r="B26" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C26" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D26" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -4537,15 +4728,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82A033C-B7DB-4E5B-A18C-D600DCD40324}">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B12"/>
+    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" style="8" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="17"/>
   </cols>
   <sheetData>
@@ -4567,59 +4758,48 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B3" s="7">
         <v>0.05</v>
       </c>
-      <c r="C3" s="7">
-        <v>0.05</v>
-      </c>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
+      <c r="A4" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="B4" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0.03</v>
-      </c>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6">
         <v>0.03</v>
       </c>
-      <c r="C5" s="6">
-        <v>0.03</v>
-      </c>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="6">
         <v>0.03</v>
       </c>
-      <c r="C6" s="6">
-        <v>0.03</v>
-      </c>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>22</v>
+      <c r="A7" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="B7" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="H7" s="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -4628,73 +4808,68 @@
       <c r="B8" s="6">
         <v>0.05</v>
       </c>
-      <c r="C8" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="H8" s="1"/>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="B9" s="6">
-        <v>0.04</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0.04</v>
-      </c>
-      <c r="H9" s="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="17">
+      <c r="A10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="17">
         <v>500</v>
       </c>
-      <c r="C10" s="17">
-        <v>500</v>
-      </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="17">
+      <c r="C12" s="6"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="17">
         <v>800</v>
       </c>
-      <c r="C11" s="17">
-        <v>800</v>
-      </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C12" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
+      <c r="C13" s="17"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+      <c r="C14" s="17"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -4762,15 +4937,15 @@
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
+      <c r="A33" s="5"/>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
+      <c r="A34" s="5"/>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
+      <c r="A35" s="5"/>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -4783,12 +4958,15 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
+      <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
+      <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
+      <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
@@ -4855,6 +5033,15 @@
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4877,7 +5064,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B1" t="b">
         <v>1</v>
@@ -4885,7 +5072,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
@@ -4893,7 +5080,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -4901,7 +5088,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -4909,7 +5096,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -4917,7 +5104,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -4925,7 +5112,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -5041,7 +5228,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5052,34 +5239,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -5087,7 +5274,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -5112,15 +5299,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -5128,7 +5315,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -5136,7 +5323,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B4">
         <v>0</v>

--- a/Excel_input.xlsx
+++ b/Excel_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wijnand IJzermans\Jupyter Notebooks\Port Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1B9D4D-6A48-4A51-995E-2287C5748D50}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59693533-3D2F-4EAC-9047-8E66677D836A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="8745" firstSheet="1" activeTab="3" xr2:uid="{6131D7F3-CE41-4D55-9656-8FFAD0B6AAA4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="8745" firstSheet="1" activeTab="4" xr2:uid="{6131D7F3-CE41-4D55-9656-8FFAD0B6AAA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Vessel specs" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="Unloaders" sheetId="13" r:id="rId10"/>
     <sheet name="Depreciation" sheetId="14" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="179017" calcMode="manual" calcOnSave="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -232,6 +232,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="H24" authorId="0" shapeId="0" xr:uid="{498190A0-5F28-4F4B-8932-786D17E60954}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Wijnand IJzermans:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Own assumption</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C50" authorId="0" shapeId="0" xr:uid="{CCFA399F-FD69-4E82-825C-502574833690}">
       <text>
         <r>
@@ -417,7 +441,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="129">
   <si>
     <t>Year</t>
   </si>
@@ -440,15 +464,6 @@
     <t>Handymax</t>
   </si>
   <si>
-    <t>LOA (m)</t>
-  </si>
-  <si>
-    <t>Draft (m)</t>
-  </si>
-  <si>
-    <t>Beam (m)</t>
-  </si>
-  <si>
     <t>Panamax</t>
   </si>
   <si>
@@ -488,12 +503,6 @@
     <t>Capex escalation</t>
   </si>
   <si>
-    <t>Call size (t)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max cranes per vessel </t>
-  </si>
-  <si>
     <t>Receiving</t>
   </si>
   <si>
@@ -608,15 +617,6 @@
     <t>Loaders (?)</t>
   </si>
   <si>
-    <t xml:space="preserve">Maize </t>
-  </si>
-  <si>
-    <t>Mooring time (hours)</t>
-  </si>
-  <si>
-    <t>Allowable turnaround time (hours)</t>
-  </si>
-  <si>
     <t>Share maize unloading lines?</t>
   </si>
   <si>
@@ -626,9 +626,6 @@
     <t>Share wheat unloading lines</t>
   </si>
   <si>
-    <t>Demurrage costs ($/hour)</t>
-  </si>
-  <si>
     <t>Real WACC Terminal Operator</t>
   </si>
   <si>
@@ -644,9 +641,6 @@
     <t>Owner</t>
   </si>
   <si>
-    <t>Revenues</t>
-  </si>
-  <si>
     <t>Quay wall</t>
   </si>
   <si>
@@ -716,12 +710,6 @@
     <t>Selling penalty</t>
   </si>
   <si>
-    <t>Unloaders</t>
-  </si>
-  <si>
-    <t>Linear depreciation rate</t>
-  </si>
-  <si>
     <t>Demurrage costs</t>
   </si>
   <si>
@@ -741,13 +729,115 @@
   </si>
   <si>
     <t>Storage - Loading conveyor length</t>
+  </si>
+  <si>
+    <t>Call size</t>
+  </si>
+  <si>
+    <t>Draft</t>
+  </si>
+  <si>
+    <t>Beam</t>
+  </si>
+  <si>
+    <t>LOA</t>
+  </si>
+  <si>
+    <t>Max cranes per vessel</t>
+  </si>
+  <si>
+    <t>Allowable turnaround time</t>
+  </si>
+  <si>
+    <t>Mooring time</t>
+  </si>
+  <si>
+    <t>Handysize maize</t>
+  </si>
+  <si>
+    <t>Handymax  maize</t>
+  </si>
+  <si>
+    <t>Panamax maize</t>
+  </si>
+  <si>
+    <t>Handysize soybeans</t>
+  </si>
+  <si>
+    <t>Handymax soybeans</t>
+  </si>
+  <si>
+    <t>Panamax soybeans</t>
+  </si>
+  <si>
+    <t>Handysize  wheat</t>
+  </si>
+  <si>
+    <t>Handymax wheat</t>
+  </si>
+  <si>
+    <t>Panamax wheat</t>
+  </si>
+  <si>
+    <t>Lifting capacity</t>
+  </si>
+  <si>
+    <t>Peak capacity</t>
+  </si>
+  <si>
+    <t>Selected type</t>
+  </si>
+  <si>
+    <t>Harbour crane</t>
+  </si>
+  <si>
+    <t>Mobile crane</t>
+  </si>
+  <si>
+    <t>Maintenance costs</t>
+  </si>
+  <si>
+    <t>Labour costs</t>
+  </si>
+  <si>
+    <t>Energy costs</t>
+  </si>
+  <si>
+    <t>Mobilisation costs</t>
+  </si>
+  <si>
+    <t>Mobilisation ($)</t>
+  </si>
+  <si>
+    <t>Min mobilisation ($)</t>
+  </si>
+  <si>
+    <t>Depreciation rate</t>
+  </si>
+  <si>
+    <t>Unloader</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Number of bunkers</t>
+  </si>
+  <si>
+    <t>Bunker</t>
+  </si>
+  <si>
+    <t>Unit rate ($/m3)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -811,6 +901,25 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF646464"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -851,7 +960,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -908,6 +1017,20 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1228,7 +1351,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1250,12 +1373,12 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="B2" s="16">
         <v>35000</v>
@@ -1269,7 +1392,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="B3" s="16">
         <v>130</v>
@@ -1283,7 +1406,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="B4" s="16">
         <v>10</v>
@@ -1297,7 +1420,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="B5" s="16">
         <v>24</v>
@@ -1311,7 +1434,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="B6" s="16">
         <v>2</v>
@@ -1325,7 +1448,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="B7" s="16">
         <v>24</v>
@@ -1339,7 +1462,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="B8" s="16">
         <v>3</v>
@@ -1359,7 +1482,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="B9">
         <v>600</v>
@@ -1384,34 +1507,155 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9754C4-B016-4CC4-824F-2BA3998B9059}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" t="s">
-        <v>105</v>
+        <v>112</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <v>40</v>
+      </c>
+      <c r="D2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>13000000</v>
+      </c>
+      <c r="C4">
+        <v>10000000</v>
+      </c>
+      <c r="D4">
+        <v>5000000</v>
+      </c>
+      <c r="E4">
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5">
+        <v>1000000</v>
+      </c>
+      <c r="C5">
+        <v>1000000</v>
+      </c>
+      <c r="D5">
+        <v>1000000</v>
+      </c>
+      <c r="E5">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="27">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C6" s="27">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D6" s="27">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E6" s="27">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{070BA78F-096A-4D1F-BDFD-9A57BBEA31ED}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{070BA78F-096A-4D1F-BDFD-9A57BBEA31ED}">
       <formula1>"Gantry crane, Harbour crane, Mobile crane, Screw unloader"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1422,10 +1666,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B2986D4-061F-4386-A765-E73DC08CF39F}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1437,18 +1681,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="C1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="B2" s="23">
         <v>0.03</v>
@@ -1459,12 +1703,24 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B3" s="23">
         <v>0.02</v>
       </c>
       <c r="C3" s="23">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="23">
+        <f>1/30</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="C4" s="23">
         <v>0.1</v>
       </c>
     </row>
@@ -1478,7 +1734,7 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1502,35 +1758,30 @@
         <v>2016</v>
       </c>
       <c r="B2" s="3">
-        <v>700000</v>
+        <v>1000000</v>
       </c>
       <c r="C2" s="3">
-        <v>300000</v>
+        <v>1</v>
       </c>
       <c r="D2" s="3">
-        <v>200000</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1000000</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2017</v>
       </c>
       <c r="B3" s="3">
-        <f>E3-D3-C3</f>
-        <v>700000</v>
+        <v>1500000</v>
       </c>
       <c r="C3" s="3">
-        <v>500000</v>
+        <v>1</v>
       </c>
       <c r="D3" s="3">
-        <v>300000</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1500000</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -1538,20 +1789,15 @@
         <v>2018</v>
       </c>
       <c r="B4" s="3">
-        <f t="shared" ref="B4:B25" si="0">E4-D4-C4</f>
-        <v>900000</v>
+        <v>1900000</v>
       </c>
       <c r="C4" s="3">
-        <f>C3+100000</f>
-        <v>600000</v>
+        <v>1</v>
       </c>
       <c r="D4" s="3">
-        <f>D3+100000</f>
-        <v>400000</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1900000</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -1559,304 +1805,237 @@
         <v>2019</v>
       </c>
       <c r="B5" s="3">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
+        <f t="shared" ref="B5:B14" si="0">B4+300000</f>
+        <v>2200000</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" ref="C5:C24" si="1">C4+100000</f>
-        <v>700000</v>
+        <v>1</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D25" si="2">D4+100000</f>
-        <v>500000</v>
-      </c>
-      <c r="E5" s="3">
-        <f t="shared" ref="E5:E14" si="3">E4+300000</f>
-        <v>2200000</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <f t="shared" ref="A6:A18" si="4">A5+1</f>
+        <f t="shared" ref="A6:A18" si="1">A5+1</f>
         <v>2020</v>
       </c>
       <c r="B6" s="3">
         <f t="shared" si="0"/>
-        <v>1100000</v>
+        <v>2500000</v>
       </c>
       <c r="C6" s="3">
-        <f t="shared" si="1"/>
-        <v>800000</v>
+        <v>1</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="2"/>
-        <v>600000</v>
-      </c>
-      <c r="E6" s="3">
-        <f t="shared" si="3"/>
-        <v>2500000</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2021</v>
       </c>
       <c r="B7" s="3">
         <f t="shared" si="0"/>
-        <v>1200000</v>
+        <v>2800000</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" si="1"/>
-        <v>900000</v>
+        <v>1</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="2"/>
-        <v>700000</v>
-      </c>
-      <c r="E7" s="3">
-        <f t="shared" si="3"/>
-        <v>2800000</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2022</v>
       </c>
       <c r="B8" s="3">
         <f t="shared" si="0"/>
-        <v>1300000</v>
+        <v>3100000</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" si="1"/>
-        <v>1000000</v>
+        <v>1</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="2"/>
-        <v>800000</v>
-      </c>
-      <c r="E8" s="3">
-        <f t="shared" si="3"/>
-        <v>3100000</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2023</v>
       </c>
       <c r="B9" s="3">
         <f t="shared" si="0"/>
-        <v>1400000</v>
+        <v>3400000</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" si="1"/>
-        <v>1100000</v>
+        <v>1</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="2"/>
-        <v>900000</v>
-      </c>
-      <c r="E9" s="3">
-        <f t="shared" si="3"/>
-        <v>3400000</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2024</v>
       </c>
       <c r="B10" s="3">
         <f t="shared" si="0"/>
-        <v>1500000</v>
+        <v>3700000</v>
       </c>
       <c r="C10" s="3">
-        <f t="shared" si="1"/>
-        <v>1200000</v>
+        <v>1</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="2"/>
-        <v>1000000</v>
-      </c>
-      <c r="E10" s="3">
-        <f t="shared" si="3"/>
-        <v>3700000</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2025</v>
       </c>
       <c r="B11" s="3">
         <f t="shared" si="0"/>
-        <v>1600000</v>
+        <v>4000000</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" si="1"/>
-        <v>1300000</v>
+        <v>1</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="2"/>
-        <v>1100000</v>
-      </c>
-      <c r="E11" s="3">
-        <f t="shared" si="3"/>
-        <v>4000000</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2026</v>
       </c>
       <c r="B12" s="3">
         <f t="shared" si="0"/>
-        <v>1700000</v>
+        <v>4300000</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" si="1"/>
-        <v>1400000</v>
+        <v>1</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="2"/>
-        <v>1200000</v>
-      </c>
-      <c r="E12" s="3">
-        <f t="shared" si="3"/>
-        <v>4300000</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2027</v>
       </c>
       <c r="B13" s="3">
         <f t="shared" si="0"/>
-        <v>1800000</v>
+        <v>4600000</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" si="1"/>
-        <v>1500000</v>
+        <v>1</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="2"/>
-        <v>1300000</v>
-      </c>
-      <c r="E13" s="3">
-        <f t="shared" si="3"/>
-        <v>4600000</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2028</v>
       </c>
       <c r="B14" s="3">
         <f t="shared" si="0"/>
-        <v>1900000</v>
+        <v>4900000</v>
       </c>
       <c r="C14" s="3">
-        <f t="shared" si="1"/>
-        <v>1600000</v>
+        <v>1</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="2"/>
-        <v>1400000</v>
-      </c>
-      <c r="E14" s="3">
-        <f t="shared" si="3"/>
-        <v>4900000</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2029</v>
       </c>
       <c r="B15" s="3">
-        <f t="shared" si="0"/>
-        <v>1200000</v>
+        <f>B14-500000</f>
+        <v>4400000</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" si="1"/>
-        <v>1700000</v>
+        <v>1</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="2"/>
-        <v>1500000</v>
-      </c>
-      <c r="E15" s="3">
-        <f>E14-500000</f>
-        <v>4400000</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2030</v>
       </c>
       <c r="B16" s="3">
-        <f t="shared" si="0"/>
-        <v>500000</v>
+        <f t="shared" ref="B16:B19" si="2">B15-500000</f>
+        <v>3900000</v>
       </c>
       <c r="C16" s="3">
-        <f t="shared" si="1"/>
-        <v>1800000</v>
+        <v>1</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="2"/>
-        <v>1600000</v>
-      </c>
-      <c r="E16" s="3">
-        <f t="shared" ref="E16:E19" si="5">E15-500000</f>
-        <v>3900000</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2031</v>
       </c>
       <c r="B17" s="3">
-        <f t="shared" si="0"/>
-        <v>500000</v>
+        <f t="shared" si="2"/>
+        <v>3400000</v>
       </c>
       <c r="C17" s="3">
-        <v>1600000</v>
+        <v>1</v>
       </c>
       <c r="D17" s="3">
-        <v>1300000</v>
-      </c>
-      <c r="E17" s="3">
-        <f t="shared" si="5"/>
-        <v>3400000</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2032</v>
       </c>
       <c r="B18" s="3">
-        <f t="shared" si="0"/>
-        <v>200000</v>
+        <f t="shared" si="2"/>
+        <v>2900000</v>
       </c>
       <c r="C18" s="3">
-        <f>C17</f>
-        <v>1600000</v>
+        <v>1</v>
       </c>
       <c r="D18" s="3">
-        <v>1100000</v>
-      </c>
-      <c r="E18" s="3">
-        <f t="shared" si="5"/>
-        <v>2900000</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -1864,128 +2043,101 @@
         <v>2033</v>
       </c>
       <c r="B19" s="3">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2400000</v>
       </c>
       <c r="C19" s="3">
-        <f t="shared" ref="C19:C25" si="6">C18</f>
-        <v>1600000</v>
+        <v>1</v>
       </c>
       <c r="D19" s="3">
-        <v>900000</v>
-      </c>
-      <c r="E19" s="3">
-        <f t="shared" si="5"/>
-        <v>2400000</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <f t="shared" ref="A20:A24" si="7">A19+1</f>
+        <f t="shared" ref="A20:A24" si="3">A19+1</f>
         <v>2034</v>
       </c>
       <c r="B20" s="3">
-        <f t="shared" si="0"/>
-        <v>600000</v>
+        <f>B19+500000</f>
+        <v>2900000</v>
       </c>
       <c r="C20" s="3">
-        <f t="shared" si="6"/>
-        <v>1600000</v>
+        <v>1</v>
       </c>
       <c r="D20" s="3">
-        <v>700000</v>
-      </c>
-      <c r="E20" s="3">
-        <f>E19+500000</f>
-        <v>2900000</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>2035</v>
       </c>
       <c r="B21" s="3">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
+        <f t="shared" ref="B21:B25" si="4">B20+500000</f>
+        <v>3400000</v>
       </c>
       <c r="C21" s="3">
-        <f t="shared" si="6"/>
-        <v>1600000</v>
+        <v>1</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="2"/>
-        <v>800000</v>
-      </c>
-      <c r="E21" s="3">
-        <f t="shared" ref="E21:E25" si="8">E20+500000</f>
-        <v>3400000</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>2036</v>
       </c>
       <c r="B22" s="3">
-        <f t="shared" si="0"/>
-        <v>1400000</v>
+        <f t="shared" si="4"/>
+        <v>3900000</v>
       </c>
       <c r="C22" s="3">
-        <f t="shared" si="6"/>
-        <v>1600000</v>
+        <v>1</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="2"/>
-        <v>900000</v>
-      </c>
-      <c r="E22" s="3">
-        <f t="shared" si="8"/>
-        <v>3900000</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>2037</v>
       </c>
       <c r="B23" s="3">
-        <f t="shared" si="0"/>
-        <v>1800000</v>
+        <f t="shared" si="4"/>
+        <v>4400000</v>
       </c>
       <c r="C23" s="3">
-        <f t="shared" si="6"/>
-        <v>1600000</v>
+        <v>1</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="2"/>
-        <v>1000000</v>
-      </c>
-      <c r="E23" s="3">
-        <f t="shared" si="8"/>
-        <v>4400000</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>2038</v>
       </c>
       <c r="B24" s="3">
-        <f t="shared" si="0"/>
-        <v>2200000</v>
+        <f t="shared" si="4"/>
+        <v>4900000</v>
       </c>
       <c r="C24" s="3">
-        <f t="shared" si="6"/>
-        <v>1600000</v>
+        <v>1</v>
       </c>
       <c r="D24" s="3">
-        <f t="shared" si="2"/>
-        <v>1100000</v>
-      </c>
-      <c r="E24" s="3">
-        <f t="shared" si="8"/>
-        <v>4900000</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
@@ -1993,21 +2145,16 @@
         <v>2039</v>
       </c>
       <c r="B25" s="3">
-        <f t="shared" si="0"/>
-        <v>2600000</v>
+        <f t="shared" si="4"/>
+        <v>5400000</v>
       </c>
       <c r="C25" s="3">
-        <f t="shared" si="6"/>
-        <v>1600000</v>
+        <v>1</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" si="2"/>
-        <v>1200000</v>
-      </c>
-      <c r="E25" s="3">
-        <f t="shared" si="8"/>
-        <v>5400000</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
@@ -2184,875 +2331,881 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34A9673B-1773-4FD5-9B92-B9AD97BC09DB}">
-  <dimension ref="A1:M60"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:M27"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>103</v>
+      </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>106</v>
+      </c>
+      <c r="F1" t="s">
+        <v>107</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="J1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>2016</v>
       </c>
+      <c r="B2">
+        <v>0.5</v>
+      </c>
       <c r="C2">
         <v>0.5</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>0.5</v>
       </c>
-      <c r="E2">
-        <v>0</v>
+      <c r="F2">
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2017</v>
       </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
       <c r="C3">
         <v>0.5</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>0.5</v>
       </c>
-      <c r="E3">
-        <v>0</v>
+      <c r="F3">
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f>A3+1</f>
         <v>2018</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f>A4+1</f>
         <v>2019</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f t="shared" ref="A6:A18" si="0">A5+1</f>
         <v>2020</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f>A18+1</f>
         <v>2033</v>
       </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f t="shared" ref="A20:A24" si="1">A19+1</f>
         <v>2034</v>
       </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f t="shared" si="1"/>
         <v>2035</v>
       </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f t="shared" si="1"/>
         <v>2036</v>
       </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f t="shared" si="1"/>
         <v>2037</v>
       </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f t="shared" si="1"/>
         <v>2038</v>
       </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <f>A24+1</f>
         <v>2039</v>
       </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <f>A25+1</f>
         <v>2040</v>
       </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
@@ -3140,11 +3293,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B420734-39EF-4C95-96D7-F3D015929321}">
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E11" sqref="E11"/>
+      <selection pane="topRight" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3156,38 +3309,46 @@
     <col min="5" max="5" width="24" style="9" customWidth="1"/>
     <col min="6" max="6" width="27.140625" style="9" customWidth="1"/>
     <col min="7" max="7" width="21.42578125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="9"/>
+    <col min="8" max="8" width="13.42578125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="9" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G2" s="9">
         <v>100000</v>
@@ -3195,36 +3356,49 @@
       <c r="H2" s="9">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="9">
+        <v>2500000</v>
+      </c>
+      <c r="J2" s="28">
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>14</v>
-      </c>
       <c r="E4" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -3233,10 +3407,12 @@
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C6" s="9">
         <v>23</v>
@@ -3250,13 +3426,13 @@
       <c r="H6" s="9">
         <v>40</v>
       </c>
-      <c r="I6" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C7" s="9">
         <v>42</v>
@@ -3270,13 +3446,13 @@
       <c r="H7" s="9">
         <v>40</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -3285,10 +3461,12 @@
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D10" s="9">
         <v>16</v>
@@ -3296,35 +3474,35 @@
       <c r="G10" s="9">
         <v>9000000</v>
       </c>
-      <c r="I10" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" s="9">
         <v>25</v>
       </c>
       <c r="G11" s="9">
         <v>10500000</v>
       </c>
-      <c r="I11" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="9">
         <v>40</v>
       </c>
       <c r="G12" s="9">
         <v>13500000</v>
       </c>
-      <c r="I12" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K12" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -3333,10 +3511,12 @@
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C15" s="9">
         <v>23</v>
@@ -3350,13 +3530,13 @@
       <c r="H15" s="9">
         <v>20</v>
       </c>
-      <c r="I15" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K15" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C16" s="9">
         <v>42</v>
@@ -3370,13 +3550,13 @@
       <c r="H16" s="9">
         <v>20</v>
       </c>
-      <c r="I16" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K16" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -3385,61 +3565,79 @@
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
-    </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F19" s="9">
         <v>700</v>
       </c>
-      <c r="I19" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K19" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+    </row>
+    <row r="23" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="G23" s="29" t="s">
+        <v>128</v>
+      </c>
       <c r="H23" s="13"/>
-    </row>
-    <row r="24" spans="1:9" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+    </row>
+    <row r="24" spans="1:11" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-    </row>
-    <row r="25" spans="1:9" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="31">
+        <v>3000</v>
+      </c>
+      <c r="H24" s="31">
+        <v>30</v>
+      </c>
+      <c r="I24" s="31">
+        <v>40000</v>
+      </c>
+      <c r="J24" s="30"/>
+    </row>
+    <row r="25" spans="1:11" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="24"/>
       <c r="B25" s="24"/>
       <c r="C25" s="24"/>
@@ -3448,8 +3646,10 @@
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
-    </row>
-    <row r="26" spans="1:9" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+    </row>
+    <row r="26" spans="1:11" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24"/>
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
@@ -3458,10 +3658,12 @@
       <c r="F26" s="24"/>
       <c r="G26" s="24"/>
       <c r="H26" s="24"/>
-    </row>
-    <row r="27" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+    </row>
+    <row r="27" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -3470,10 +3672,12 @@
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
-    </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F28" s="9">
         <v>300</v>
@@ -3481,13 +3685,13 @@
       <c r="H28" s="9">
         <v>10</v>
       </c>
-      <c r="I28" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K28" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F29" s="9">
         <v>600</v>
@@ -3495,13 +3699,13 @@
       <c r="H29" s="9">
         <v>10</v>
       </c>
-      <c r="I29" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K29" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F30" s="9">
         <v>1000</v>
@@ -3509,13 +3713,13 @@
       <c r="H30" s="9">
         <v>10</v>
       </c>
-      <c r="I30" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K30" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F31" s="9">
         <v>1200</v>
@@ -3523,13 +3727,13 @@
       <c r="H31" s="9">
         <v>10</v>
       </c>
-      <c r="I31" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K31" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F32" s="9">
         <v>1500</v>
@@ -3537,13 +3741,13 @@
       <c r="H32" s="9">
         <v>10</v>
       </c>
-      <c r="I32" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K32" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F33" s="9">
         <v>1800</v>
@@ -3551,13 +3755,13 @@
       <c r="H33" s="9">
         <v>10</v>
       </c>
-      <c r="I33" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K33" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F34" s="9">
         <v>2000</v>
@@ -3565,13 +3769,13 @@
       <c r="H34" s="9">
         <v>10</v>
       </c>
-      <c r="I34" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K34" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F35" s="9">
         <v>2200</v>
@@ -3579,13 +3783,13 @@
       <c r="H35" s="9">
         <v>10</v>
       </c>
-      <c r="I35" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K35" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F36" s="9">
         <v>2500</v>
@@ -3593,13 +3797,13 @@
       <c r="H36" s="9">
         <v>10</v>
       </c>
-      <c r="I36" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K36" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -3608,10 +3812,12 @@
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
-    </row>
-    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+    </row>
+    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F39" s="9">
         <v>300</v>
@@ -3619,13 +3825,13 @@
       <c r="H39" s="9">
         <v>10</v>
       </c>
-      <c r="I39" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K39" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F40" s="9">
         <v>600</v>
@@ -3633,19 +3839,19 @@
       <c r="H40" s="9">
         <v>10</v>
       </c>
-      <c r="I40" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K40" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F41" s="9">
         <v>1000</v>
@@ -3653,13 +3859,13 @@
       <c r="H41" s="9">
         <v>10</v>
       </c>
-      <c r="I41" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K41" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C42" s="9">
         <v>25000</v>
@@ -3674,13 +3880,13 @@
       <c r="H42" s="9">
         <v>10</v>
       </c>
-      <c r="I42" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K42" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F43" s="9">
         <v>1500</v>
@@ -3688,13 +3894,13 @@
       <c r="H43" s="9">
         <v>10</v>
       </c>
-      <c r="I43" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K43" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F44" s="9">
         <v>1800</v>
@@ -3702,13 +3908,13 @@
       <c r="H44" s="9">
         <v>10</v>
       </c>
-      <c r="I44" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K44" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F45" s="9">
         <v>2000</v>
@@ -3716,13 +3922,13 @@
       <c r="H45" s="9">
         <v>10</v>
       </c>
-      <c r="I45" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K45" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F46" s="9">
         <v>2200</v>
@@ -3730,13 +3936,13 @@
       <c r="H46" s="9">
         <v>10</v>
       </c>
-      <c r="I46" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K46" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F47" s="9">
         <v>2500</v>
@@ -3744,13 +3950,13 @@
       <c r="H47" s="9">
         <v>10</v>
       </c>
-      <c r="I47" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K47" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
@@ -3759,10 +3965,12 @@
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
-    </row>
-    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+    </row>
+    <row r="50" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C50" s="9">
         <v>25</v>
@@ -3770,31 +3978,33 @@
       <c r="H50" s="9">
         <v>10</v>
       </c>
-      <c r="I50" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K50" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+    </row>
+    <row r="53" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
@@ -3803,30 +4013,34 @@
       <c r="F53" s="13"/>
       <c r="G53" s="13"/>
       <c r="H53" s="13"/>
-    </row>
-    <row r="55" spans="1:9" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+    </row>
+    <row r="55" spans="1:11" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
       <c r="G55" s="10" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+    </row>
+    <row r="56" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
@@ -3835,13 +4049,15 @@
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
-    </row>
-    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+    </row>
+    <row r="57" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C57" s="9">
         <v>15000</v>
@@ -3849,13 +4065,13 @@
       <c r="H57" s="9">
         <v>30</v>
       </c>
-      <c r="I57" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K57" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
@@ -3864,10 +4080,12 @@
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
       <c r="H59" s="13"/>
-    </row>
-    <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+    </row>
+    <row r="60" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C60" s="9">
         <v>20000</v>
@@ -3875,13 +4093,13 @@
       <c r="H60" s="9">
         <v>30</v>
       </c>
-      <c r="I60" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K60" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C61" s="9">
         <v>110000</v>
@@ -3889,57 +4107,59 @@
       <c r="H61" s="9">
         <v>30</v>
       </c>
-      <c r="I61" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K61" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="9" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G62" s="9">
         <v>40.6</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="9" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G63" s="9">
         <v>35000</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="9" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G64" s="9">
         <v>29000</v>
       </c>
     </row>
-    <row r="66" spans="1:9" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
       <c r="E66" s="10"/>
       <c r="F66" s="10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+    </row>
+    <row r="67" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
@@ -3948,10 +4168,12 @@
       <c r="F67" s="13"/>
       <c r="G67" s="13"/>
       <c r="H67" s="13"/>
-    </row>
-    <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I67" s="13"/>
+      <c r="J67" s="13"/>
+    </row>
+    <row r="68" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F68" s="9">
         <v>300</v>
@@ -3959,13 +4181,13 @@
       <c r="H68" s="9">
         <v>10</v>
       </c>
-      <c r="I68" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K68" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F69" s="9">
         <v>600</v>
@@ -3973,13 +4195,13 @@
       <c r="H69" s="9">
         <v>10</v>
       </c>
-      <c r="I69" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K69" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F70" s="9">
         <v>1000</v>
@@ -3987,13 +4209,13 @@
       <c r="H70" s="9">
         <v>10</v>
       </c>
-      <c r="I70" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K70" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F71" s="9">
         <v>1200</v>
@@ -4001,13 +4223,13 @@
       <c r="H71" s="9">
         <v>10</v>
       </c>
-      <c r="I71" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K71" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F72" s="9">
         <v>1500</v>
@@ -4015,13 +4237,13 @@
       <c r="H72" s="9">
         <v>10</v>
       </c>
-      <c r="I72" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K72" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F73" s="9">
         <v>1800</v>
@@ -4029,13 +4251,13 @@
       <c r="H73" s="9">
         <v>10</v>
       </c>
-      <c r="I73" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K73" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F74" s="9">
         <v>2000</v>
@@ -4043,13 +4265,13 @@
       <c r="H74" s="9">
         <v>10</v>
       </c>
-      <c r="I74" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K74" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F75" s="9">
         <v>2200</v>
@@ -4057,13 +4279,13 @@
       <c r="H75" s="9">
         <v>10</v>
       </c>
-      <c r="I75" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K75" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F76" s="9">
         <v>2500</v>
@@ -4071,35 +4293,37 @@
       <c r="H76" s="9">
         <v>10</v>
       </c>
-      <c r="I76" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K76" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D78" s="10"/>
       <c r="E78" s="10"/>
       <c r="F78" s="10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
+    </row>
+    <row r="79" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
@@ -4108,13 +4332,15 @@
       <c r="F79" s="13"/>
       <c r="G79" s="13"/>
       <c r="H79" s="13"/>
-    </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I79" s="13"/>
+      <c r="J79" s="13"/>
+    </row>
+    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="15" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F80" s="9">
         <v>500</v>
@@ -4122,16 +4348,16 @@
       <c r="H80" s="9">
         <v>15</v>
       </c>
-      <c r="I80" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K80" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="15" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F81" s="9">
         <v>2500</v>
@@ -4139,8 +4365,8 @@
       <c r="H81" s="9">
         <v>15</v>
       </c>
-      <c r="I81" s="9" t="s">
-        <v>40</v>
+      <c r="K81" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -4154,8 +4380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D09429-E9D7-4636-AB39-01054E6B1615}">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4165,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -4179,13 +4405,13 @@
         <v>2016</v>
       </c>
       <c r="B2" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
@@ -4196,13 +4422,13 @@
         <v>2017</v>
       </c>
       <c r="B3" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -4211,13 +4437,13 @@
         <v>2018</v>
       </c>
       <c r="B4" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -4226,13 +4452,13 @@
         <v>2019</v>
       </c>
       <c r="B5" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -4241,13 +4467,13 @@
         <v>2020</v>
       </c>
       <c r="B6" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -4256,13 +4482,13 @@
         <v>2021</v>
       </c>
       <c r="B7" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -4271,13 +4497,13 @@
         <v>2022</v>
       </c>
       <c r="B8" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -4286,13 +4512,13 @@
         <v>2023</v>
       </c>
       <c r="B9" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -4301,13 +4527,13 @@
         <v>2024</v>
       </c>
       <c r="B10" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -4316,13 +4542,13 @@
         <v>2025</v>
       </c>
       <c r="B11" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -4331,13 +4557,13 @@
         <v>2026</v>
       </c>
       <c r="B12" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -4346,13 +4572,13 @@
         <v>2027</v>
       </c>
       <c r="B13" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -4361,13 +4587,13 @@
         <v>2028</v>
       </c>
       <c r="B14" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D14" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -4376,13 +4602,13 @@
         <v>2029</v>
       </c>
       <c r="B15" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D15" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -4391,13 +4617,13 @@
         <v>2030</v>
       </c>
       <c r="B16" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -4406,13 +4632,13 @@
         <v>2031</v>
       </c>
       <c r="B17" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D17" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -4421,13 +4647,13 @@
         <v>2032</v>
       </c>
       <c r="B18" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D18" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -4436,13 +4662,13 @@
         <v>2033</v>
       </c>
       <c r="B19" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D19" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -4451,13 +4677,13 @@
         <v>2034</v>
       </c>
       <c r="B20" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D20" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -4466,13 +4692,13 @@
         <v>2035</v>
       </c>
       <c r="B21" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D21" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4481,13 +4707,13 @@
         <v>2036</v>
       </c>
       <c r="B22" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D22" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -4496,13 +4722,13 @@
         <v>2037</v>
       </c>
       <c r="B23" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D23" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -4511,13 +4737,13 @@
         <v>2038</v>
       </c>
       <c r="B24" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D24" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -4526,13 +4752,13 @@
         <v>2039</v>
       </c>
       <c r="B25" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D25" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -4541,13 +4767,13 @@
         <v>2040</v>
       </c>
       <c r="B26" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D26" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -4730,8 +4956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82A033C-B7DB-4E5B-A18C-D600DCD40324}">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4742,15 +4968,15 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B2" s="4">
         <v>8760</v>
@@ -4758,7 +4984,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B3" s="7">
         <v>0.05</v>
@@ -4767,7 +4993,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B4" s="6">
         <v>7.0000000000000007E-2</v>
@@ -4776,7 +5002,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5" s="6">
         <v>0.03</v>
@@ -4785,7 +5011,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B6" s="6">
         <v>0.03</v>
@@ -4794,7 +5020,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" s="6">
         <v>0.04</v>
@@ -4803,7 +5029,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B8" s="6">
         <v>0.05</v>
@@ -4812,7 +5038,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B9" s="6">
         <v>0.02</v>
@@ -4821,7 +5047,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B10" s="6">
         <v>0.03</v>
@@ -4831,7 +5057,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B11" s="6">
         <v>0.03</v>
@@ -4841,7 +5067,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B12" s="17">
         <v>500</v>
@@ -4851,7 +5077,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B13" s="17">
         <v>800</v>
@@ -4880,16 +5106,19 @@
       <c r="A18" s="5"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
+      <c r="E19" s="26"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
+      <c r="E20" s="26"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
+      <c r="E21" s="26"/>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -5064,7 +5293,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B1" t="b">
         <v>1</v>
@@ -5072,7 +5301,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
@@ -5080,7 +5309,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -5088,7 +5317,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -5096,7 +5325,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -5104,7 +5333,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -5112,7 +5341,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -5228,7 +5457,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5239,42 +5468,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -5285,10 +5514,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA38D61D-CE7D-45B5-BE32-E0561BC13D53}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5299,15 +5528,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -5315,7 +5544,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -5323,9 +5552,17 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5">
         <v>0</v>
       </c>
     </row>
